--- a/biology/Médecine/Critères_de_Fried/Critères_de_Fried.xlsx
+++ b/biology/Médecine/Critères_de_Fried/Critères_de_Fried.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crit%C3%A8res_de_Fried</t>
+          <t>Critères_de_Fried</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les critères de Fried sont une liste de 5 critères utilisés en gériatrie pour définir le syndrome de fragilité du sujet âgé[1]. Ils reposent sur les travaux publiés en 2001 de Linda Fried, gériatre et épidémiologiste américaine[2],[3].
-En plus de leur utilisation en pratique clinique, ils sont également utilisés comme critère de recrutement en recherche clinique[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critères de Fried sont une liste de 5 critères utilisés en gériatrie pour définir le syndrome de fragilité du sujet âgé. Ils reposent sur les travaux publiés en 2001 de Linda Fried, gériatre et épidémiologiste américaine,.
+En plus de leur utilisation en pratique clinique, ils sont également utilisés comme critère de recrutement en recherche clinique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Crit%C3%A8res_de_Fried</t>
+          <t>Critères_de_Fried</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les critères sont basés sur des données phénotypiques objectives et subjectives[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les critères sont basés sur des données phénotypiques objectives et subjectives :
 perte de poids involontaire de plus de 4,5 kg ou de plus de 5 % en 1 an ;
 asthénie ressentie par le patient selon une échelle d'autoévaluation ;
 baisse de la vitesse de marche sur 4 mètres (seuil de 0,8 m/s) ;
 perte de force musculaire (grip test selon la taille et l'IMC) ;
-sédentarité mesurée selon un seuil de dépense énergétique[6].</t>
+sédentarité mesurée selon un seuil de dépense énergétique.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Crit%C3%A8res_de_Fried</t>
+          <t>Critères_de_Fried</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sujets âgés sont dits « robustes » s'il ne présentent aucun critère et « fragiles » s'ils en présentent au moins trois. Les sujets n'entrant dans aucune de ces deux catégories sont qualifiés de « pré-fragiles »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sujets âgés sont dits « robustes » s'il ne présentent aucun critère et « fragiles » s'ils en présentent au moins trois. Les sujets n'entrant dans aucune de ces deux catégories sont qualifiés de « pré-fragiles ».
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Crit%C3%A8res_de_Fried</t>
+          <t>Critères_de_Fried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Implications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été montré que les sujets considérés comme fragiles selon ces critères avaient un risque d'hospitalisation et de décès à 3 ans augmenté par rapport aux autres personnes[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été montré que les sujets considérés comme fragiles selon ces critères avaient un risque d'hospitalisation et de décès à 3 ans augmenté par rapport aux autres personnes.
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Crit%C3%A8res_de_Fried</t>
+          <t>Critères_de_Fried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les critères phénotypiques de Fried n'envisagent la fragilité que selon des critères physiques[8]. L'échelle de Rockwood qui intègre une approche multidimensionnelle peut être utilisée de manière complémentaire[9].
-La nécessité de pratiquer les tests de façon standardisée (vitesse de marche, mesure de la force de préhension) peut également être un obstacle à son utilisation en routine en médecine ambulatoire[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les critères phénotypiques de Fried n'envisagent la fragilité que selon des critères physiques. L'échelle de Rockwood qui intègre une approche multidimensionnelle peut être utilisée de manière complémentaire.
+La nécessité de pratiquer les tests de façon standardisée (vitesse de marche, mesure de la force de préhension) peut également être un obstacle à son utilisation en routine en médecine ambulatoire.
 </t>
         </is>
       </c>
